--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254147.6630198615</v>
+        <v>-234173.4650609295</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17297070.25717502</v>
+        <v>16628357.41382743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484451</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8933078.013296878</v>
+        <v>8978065.625908673</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318.1796512114623</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>291.8692990428258</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>158.2695209380592</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>140.7239083069089</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>322.649295062619</v>
+        <v>66.53494500236943</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.43921097198661</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10.04027365719915</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1111,7 +1111,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1133,13 +1133,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>332.0164959768354</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>282.3247904698798</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1348,16 +1348,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>139.9514671241872</v>
       </c>
       <c r="Y10" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,10 +1382,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>195.4971438340163</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>158.8267372018367</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.05677735225754</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463345</v>
       </c>
     </row>
     <row r="15">
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>98.34385133095624</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>103.3456594571958</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800608</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>28.46824604904538</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>61.08641542222901</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2248,16 +2248,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>93.15725658381278</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015912</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665251</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2488,10 +2488,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022899</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>234.6314620976456</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>140.2653052259354</v>
       </c>
       <c r="G31" t="n">
-        <v>41.00451938202536</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225773</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.5835062384837</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.307979546836</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.0976184357249</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>428.9839288517128</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1356867533094</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9307845213938</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.7857844696409</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.36228653642641</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4134863141168</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.1770111145783</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5377120239368</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.353831501502</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.4979702449074</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7501939217681</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4473639902223</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.3830258600323</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.7661443289176</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6073551701951</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.4869149562864</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.4822936828556</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>27.04601967193802</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>242.9675834157543</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.1956021978507</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6328845066989</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.8530718279964</v>
+        <v>234.1486472602374</v>
       </c>
       <c r="X40" t="n">
-        <v>242.4847685783467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.6924054374578</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.5835062384837</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C41" t="n">
-        <v>433.307979546836</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.0976184357249</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
-        <v>428.9839288517128</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1356867533094</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9307845213938</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H41" t="n">
-        <v>285.7857844696409</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791314976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.36228653642641</v>
+        <v>82.81535507800146</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4134863141168</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U41" t="n">
-        <v>256.1770111145783</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5377120239368</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.353831501502</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.4979702449074</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7501939217681</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4473639902223</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C43" t="n">
-        <v>170.3830258600323</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>163.7661443289176</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6073551701951</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F43" t="n">
-        <v>174.4869149562864</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G43" t="n">
-        <v>163.4822936828556</v>
+        <v>56.67612639678132</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I43" t="n">
-        <v>6.295445131830983</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.75057454010689</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149834</v>
       </c>
       <c r="T43" t="n">
-        <v>242.9675834157543</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U43" t="n">
-        <v>275.1956021978507</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6328845066989</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W43" t="n">
-        <v>268.8530718279964</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X43" t="n">
-        <v>242.4847685783467</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.6924054374578</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.5835062384837</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C44" t="n">
-        <v>433.307979546836</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.0976184357249</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
-        <v>428.9839288517128</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1356867533094</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9307845213938</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H44" t="n">
-        <v>285.7857844696409</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791314976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.36228653642641</v>
+        <v>82.81535507800146</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4134863141168</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U44" t="n">
-        <v>256.1770111145783</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5377120239368</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.353831501502</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.4979702449074</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7501939217681</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4473639902223</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C46" t="n">
-        <v>170.3830258600323</v>
+        <v>31.24391673887971</v>
       </c>
       <c r="D46" t="n">
-        <v>163.7661443289176</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6073551701951</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F46" t="n">
-        <v>174.4869149562864</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G46" t="n">
-        <v>163.4822936828556</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>27.0460196719375</v>
+        <v>157.6489550149834</v>
       </c>
       <c r="T46" t="n">
-        <v>242.9675834157543</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U46" t="n">
-        <v>275.1956021978507</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6328845066989</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W46" t="n">
-        <v>268.8530718279964</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X46" t="n">
-        <v>242.4847685783467</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.6924054374578</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1355.627013409342</v>
+        <v>974.7482133407309</v>
       </c>
       <c r="C2" t="n">
-        <v>1321.524944633169</v>
+        <v>536.6057405241542</v>
       </c>
       <c r="D2" t="n">
-        <v>892.9432703704374</v>
+        <v>100.6959556985987</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>70.96161489729789</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>47.13458934690968</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.13458934690968</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.13458934690968</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>463.971598633103</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1042.104373311968</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1620.237147990833</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2166.735933949427</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702484</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702484</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.822771575523</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.822771575523</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.822771575523</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1710.967316986556</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1291.824853565867</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>997.0073797852347</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>552.8895449653425</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>446.4330838019848</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>351.342794948538</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>257.2223802754917</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>173.8385418916533</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>88.45345215783721</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>72.78147313450729</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>397.3397981007196</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>975.4725727795844</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1592.784783358519</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1709.957561452858</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1646.502123901241</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1516.323480231843</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1339.986933231811</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1140.869415293811</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>955.5466610270048</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>800.6792252658848</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.1934460451056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>600.6587786275059</v>
+        <v>897.2138370509808</v>
       </c>
       <c r="C4" t="n">
-        <v>428.0970671107308</v>
+        <v>724.6521255342058</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>558.7741327357285</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>389.0161289864658</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>212.309074948222</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>248.7613033998424</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>666.9711851678035</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1126.455052348716</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1568.713855506361</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1988.383104732143</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702484</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702484</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.472177407856</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.472177407856</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2068.592730986311</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1790.159730239417</v>
       </c>
       <c r="V4" t="n">
-        <v>1537.315227112681</v>
+        <v>1503.204222109847</v>
       </c>
       <c r="W4" t="n">
-        <v>1265.288822698972</v>
+        <v>1231.177817696139</v>
       </c>
       <c r="X4" t="n">
-        <v>1019.897068032385</v>
+        <v>1231.177817696139</v>
       </c>
       <c r="Y4" t="n">
-        <v>792.477397346493</v>
+        <v>1089.032455769968</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1415.517618276922</v>
       </c>
       <c r="C5" t="n">
-        <v>520.7722471151849</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D5" t="n">
-        <v>488.9028663300335</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.7016723508711</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>203.7016723508711</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1013.629614209975</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>741.6032097962661</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>496.2114551296786</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.7917844437869</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>832.8334410837864</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.391236090724</v>
+        <v>798.7313723076138</v>
       </c>
       <c r="D8" t="n">
-        <v>890.8095618279922</v>
+        <v>766.8619915224624</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2278875652606</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>855.0926075282902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>726.6741060804052</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W10" t="n">
-        <v>454.6477016666967</v>
+        <v>1693.062784852649</v>
       </c>
       <c r="X10" t="n">
-        <v>209.2559470001092</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1976.798422154564</v>
+        <v>2105.402761916395</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.798422154564</v>
+        <v>1667.260289099818</v>
       </c>
       <c r="D11" t="n">
-        <v>1540.888637329009</v>
+        <v>1231.350504274263</v>
       </c>
       <c r="E11" t="n">
-        <v>1107.113892487304</v>
+        <v>797.5757594325578</v>
       </c>
       <c r="F11" t="n">
-        <v>679.2464628965117</v>
+        <v>369.7083298417656</v>
       </c>
       <c r="G11" t="n">
-        <v>277.8486315197756</v>
+        <v>369.7083298417656</v>
       </c>
       <c r="H11" t="n">
-        <v>80.37676906117296</v>
+        <v>80.57817528498182</v>
       </c>
       <c r="I11" t="n">
-        <v>79.95997968831297</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1752555852709</v>
+        <v>515.4160733650397</v>
       </c>
       <c r="K11" t="n">
-        <v>1021.525547543449</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="L11" t="n">
-        <v>2011.030296186322</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="M11" t="n">
-        <v>2011.030296186322</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="N11" t="n">
-        <v>3000.535044829195</v>
+        <v>1483.926903490737</v>
       </c>
       <c r="O11" t="n">
-        <v>3000.535044829195</v>
+        <v>2464.106570061043</v>
       </c>
       <c r="P11" t="n">
-        <v>3828.844919662591</v>
+        <v>3292.41644489444</v>
       </c>
       <c r="Q11" t="n">
-        <v>3828.844919662591</v>
+        <v>3838.915230853035</v>
       </c>
       <c r="R11" t="n">
-        <v>3997.998984415648</v>
+        <v>4008.069295606092</v>
       </c>
       <c r="S11" t="n">
-        <v>3997.998984415648</v>
+        <v>3924.417421789929</v>
       </c>
       <c r="T11" t="n">
-        <v>3997.998984415648</v>
+        <v>3924.417421789929</v>
       </c>
       <c r="U11" t="n">
-        <v>3997.998984415648</v>
+        <v>3763.986374111305</v>
       </c>
       <c r="V11" t="n">
-        <v>3635.382034349474</v>
+        <v>3763.986374111305</v>
       </c>
       <c r="W11" t="n">
-        <v>3230.526579760508</v>
+        <v>3359.130919522338</v>
       </c>
       <c r="X11" t="n">
-        <v>2811.384116339819</v>
+        <v>2939.988456101649</v>
       </c>
       <c r="Y11" t="n">
-        <v>2403.097992639472</v>
+        <v>2531.702332401303</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.1317246796058</v>
+        <v>586.3331309034146</v>
       </c>
       <c r="C12" t="n">
-        <v>479.675263516248</v>
+        <v>479.8766697400569</v>
       </c>
       <c r="D12" t="n">
-        <v>384.5849746628013</v>
+        <v>384.7863808866102</v>
       </c>
       <c r="E12" t="n">
-        <v>290.464559989755</v>
+        <v>290.6659662135639</v>
       </c>
       <c r="F12" t="n">
-        <v>207.0807216059166</v>
+        <v>207.2821278297255</v>
       </c>
       <c r="G12" t="n">
-        <v>121.6956318721005</v>
+        <v>121.8970380959094</v>
       </c>
       <c r="H12" t="n">
-        <v>79.95997968831297</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="I12" t="n">
-        <v>106.0236528487706</v>
+        <v>106.2250590725794</v>
       </c>
       <c r="J12" t="n">
-        <v>430.5819778149828</v>
+        <v>106.2250590725794</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.288024440707</v>
+        <v>786.9585791429568</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.026963072782</v>
+        <v>1626.228369296591</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.199741167122</v>
+        <v>1743.401147390931</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.744303615505</v>
+        <v>1679.945709839314</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.565659946107</v>
+        <v>1549.767066169915</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.229112946075</v>
+        <v>1373.430519169884</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.111595008074</v>
+        <v>1174.313001231883</v>
       </c>
       <c r="W12" t="n">
-        <v>988.7888407412681</v>
+        <v>988.9902469650769</v>
       </c>
       <c r="X12" t="n">
-        <v>833.9214049801482</v>
+        <v>834.122811203957</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.4356257593689</v>
+        <v>707.6370319831777</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.4560167652444</v>
+        <v>948.8965920317372</v>
       </c>
       <c r="C13" t="n">
-        <v>757.8943052484692</v>
+        <v>776.3348805149622</v>
       </c>
       <c r="D13" t="n">
-        <v>592.0163124499919</v>
+        <v>610.456887716485</v>
       </c>
       <c r="E13" t="n">
-        <v>422.2583087007291</v>
+        <v>440.6988839672222</v>
       </c>
       <c r="F13" t="n">
-        <v>245.5512546624853</v>
+        <v>263.9918299289784</v>
       </c>
       <c r="G13" t="n">
-        <v>79.95997968831297</v>
+        <v>98.40055495480601</v>
       </c>
       <c r="H13" t="n">
-        <v>79.95997968831297</v>
+        <v>98.40055495480601</v>
       </c>
       <c r="I13" t="n">
-        <v>79.95997968831297</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="J13" t="n">
-        <v>166.5396648530028</v>
+        <v>166.7410710768117</v>
       </c>
       <c r="K13" t="n">
-        <v>441.2981194241384</v>
+        <v>441.4995256479472</v>
       </c>
       <c r="L13" t="n">
-        <v>859.5080011920995</v>
+        <v>859.7094074159083</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.991868373012</v>
+        <v>1319.193274596821</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.250671530657</v>
+        <v>1761.452077754466</v>
       </c>
       <c r="O13" t="n">
-        <v>2180.919920756438</v>
+        <v>2181.121326980247</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.42681472678</v>
+        <v>2528.628220950589</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.619589591113</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="R13" t="n">
-        <v>2678.380420548428</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="S13" t="n">
-        <v>2678.380420548428</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="T13" t="n">
-        <v>2432.500974126884</v>
+        <v>2450.941549393377</v>
       </c>
       <c r="U13" t="n">
-        <v>2154.067973379989</v>
+        <v>2172.508548646482</v>
       </c>
       <c r="V13" t="n">
-        <v>1867.112465250419</v>
+        <v>1885.553040516912</v>
       </c>
       <c r="W13" t="n">
-        <v>1595.086060836711</v>
+        <v>1613.526636103204</v>
       </c>
       <c r="X13" t="n">
-        <v>1349.694306170123</v>
+        <v>1368.134881436616</v>
       </c>
       <c r="Y13" t="n">
-        <v>1122.274635484232</v>
+        <v>1140.715210750724</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2093.658967439508</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>3219.389950875955</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>4199.569617446262</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136696</v>
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D15" t="n">
         <v>406.885835245268</v>
@@ -5346,10 +5346,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5379,16 +5379,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S15" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T15" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V15" t="n">
         <v>1196.412455590541</v>
@@ -5397,10 +5397,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y15" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.146432354979</v>
+        <v>970.9960463903948</v>
       </c>
       <c r="C16" t="n">
-        <v>884.5847208382044</v>
+        <v>798.4343348736197</v>
       </c>
       <c r="D16" t="n">
-        <v>718.7067280397271</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E16" t="n">
-        <v>548.9487242904643</v>
+        <v>533.2191185085205</v>
       </c>
       <c r="F16" t="n">
-        <v>372.2416702522204</v>
+        <v>356.5120644702767</v>
       </c>
       <c r="G16" t="n">
-        <v>206.6503952780481</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1476.384721759858</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>1248.965051073967</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5507,58 +5507,58 @@
         <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D18" t="n">
         <v>406.885835245268</v>
@@ -5583,10 +5583,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
@@ -5616,16 +5616,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S18" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T18" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V18" t="n">
         <v>1196.412455590541</v>
@@ -5634,10 +5634,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883928</v>
+        <v>1181.31900088266</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716179</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731406</v>
+        <v>842.8792965674082</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181455</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057296</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5692,31 +5692,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471577</v>
+        <v>2657.217000252136</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050032</v>
+        <v>2411.337553830591</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303137</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173568</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759859</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.992967093272</v>
+        <v>1600.557290287539</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.57329640738</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.710185817961</v>
+        <v>970.9960463903948</v>
       </c>
       <c r="C22" t="n">
-        <v>926.1484743011862</v>
+        <v>798.4343348736197</v>
       </c>
       <c r="D22" t="n">
-        <v>760.2704815027089</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>590.5124777534462</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F22" t="n">
-        <v>496.414238779898</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057256</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>2035.366634303136</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1763.340229889428</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1517.94847522284</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1290.528804536948</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,13 +5996,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937637</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769886</v>
+        <v>920.0973401405613</v>
       </c>
       <c r="D25" t="n">
-        <v>451.8971520785113</v>
+        <v>754.219347342084</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292486</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910048</v>
+        <v>407.7542895545776</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2322.677604605267</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2044.244603858372</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798643</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127508</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6364,13 +6364,13 @@
         <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6418,7 +6418,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6537,10 +6537,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.146432354979</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C31" t="n">
-        <v>884.5847208382039</v>
+        <v>885.0724125931611</v>
       </c>
       <c r="D31" t="n">
-        <v>718.7067280397266</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E31" t="n">
-        <v>548.9487242904638</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F31" t="n">
-        <v>372.24167025222</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6649,22 +6649,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X31" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y31" t="n">
-        <v>1248.965051073966</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6844,7 +6844,7 @@
         <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449518</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.598126712567</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2087.91329888748</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.461159053414</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.1440592032</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.734274603897</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.7940882186506</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.1215786533568</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3762661062747</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2581.936540552486</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.116207122793</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4390.426081956189</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4936.924867914783</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.07893266784</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5022.884703843167</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.275121707695</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.510464016201</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.351158941517</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.953349344041</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.268530914841</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.440052205985</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.2933236446496</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8368624812919</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8572308371443</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1852518138144</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.7435767800267</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.083003945192</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.5972247244127</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.3293907728389</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>778.2253242475537</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>612.8049764405662</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>443.5046176827933</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>267.2552086360393</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.1215786533568</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1498016742059</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.3567941015005</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>883.0152137256207</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.947618762693</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.654959776497</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.772746858437</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.728178684938</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.369491405429</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.369491405429</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2695.050279615594</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2449.628478185539</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2171.653122430134</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1885.155259292055</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.586499869836</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.652390194738</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.690364500336</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.598126712567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2087.91329888748</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.461159053415</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.144059203199</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.7342746038967</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G41" t="n">
-        <v>390.7940882186506</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.1215786533568</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.3762661062747</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.786524317312</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2581.936540552486</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3562.116207122793</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4390.426081956189</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4936.924867914783</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.07893266784</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5022.884703843166</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.275121707694</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.510464016201</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.351158941517</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.953349344041</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.268530914841</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.440052205985</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.2933236446496</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8368624812919</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8572308371443</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1852518138144</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.7435767800267</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.083003945192</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.5972247244127</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.6884262595369</v>
+        <v>811.7546776883908</v>
       </c>
       <c r="C43" t="n">
-        <v>784.5843597342516</v>
+        <v>811.7546776883908</v>
       </c>
       <c r="D43" t="n">
-        <v>619.1640119272641</v>
+        <v>645.8766848899133</v>
       </c>
       <c r="E43" t="n">
-        <v>449.8636531694913</v>
+        <v>476.1186811406504</v>
       </c>
       <c r="F43" t="n">
-        <v>273.6142441227373</v>
+        <v>299.4116271024066</v>
       </c>
       <c r="G43" t="n">
-        <v>108.4806141400548</v>
+        <v>242.1630145804052</v>
       </c>
       <c r="H43" t="n">
-        <v>108.4806141400548</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>189.1498016742059</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K43" t="n">
-        <v>464.3567941015007</v>
+        <v>463.5989800066048</v>
       </c>
       <c r="L43" t="n">
-        <v>883.0152137256209</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.947618762693</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.654959776497</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.772746858438</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.728178684939</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.36949140543</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2701.409315102292</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2701.409315102292</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T43" t="n">
-        <v>2455.987513672237</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U43" t="n">
-        <v>2178.012157916832</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V43" t="n">
-        <v>1891.514294778752</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1619.945535356534</v>
+        <v>1476.384721759857</v>
       </c>
       <c r="X43" t="n">
-        <v>1375.011425681436</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1148.049399987034</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.598126712567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2087.91329888748</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.461159053414</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.1440592032</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>791.7342746038969</v>
+        <v>793.2056155771603</v>
       </c>
       <c r="G44" t="n">
-        <v>390.7940882186506</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H44" t="n">
-        <v>102.1215786533568</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I44" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.3762661062747</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>3603.834359527862</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N44" t="n">
-        <v>3603.834359527862</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3603.834359527862</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P44" t="n">
-        <v>4390.426081956189</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q44" t="n">
-        <v>4936.924867914783</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.07893266784</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S44" t="n">
-        <v>5022.884703843167</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.275121707695</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.510464016202</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.351158941518</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.953349344041</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.268530914842</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.440052205985</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.2933236446496</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8368624812919</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8572308371443</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1852518138144</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.7435767800267</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.083003945192</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.5972247244127</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.3293907728388</v>
+        <v>811.7546776883905</v>
       </c>
       <c r="C46" t="n">
-        <v>778.2253242475535</v>
+        <v>780.1951658309363</v>
       </c>
       <c r="D46" t="n">
-        <v>612.8049764405661</v>
+        <v>614.3171730324589</v>
       </c>
       <c r="E46" t="n">
-        <v>443.5046176827932</v>
+        <v>444.5591692831961</v>
       </c>
       <c r="F46" t="n">
-        <v>267.2552086360392</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G46" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>189.1498016742059</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
-        <v>464.3567941015007</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L46" t="n">
-        <v>883.0152137256209</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.947618762693</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.654959776497</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.772746858437</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.728178684938</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.369491405429</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.369491405429</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.050279615594</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T46" t="n">
-        <v>2449.628478185539</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U46" t="n">
-        <v>2171.653122430134</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V46" t="n">
-        <v>1885.155259292054</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.586499869836</v>
+        <v>1476.384721759857</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.652390194738</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.690364500336</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>421.4684834939932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>77.34673934026137</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>204.0843468947401</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>108.2982584817757</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>999.499746103912</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>999.499746103912</v>
+        <v>135.5156951187064</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8766,13 +8766,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>199.8177226071393</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,16 +9407,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9644,16 +9644,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>136.5151679143178</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>136.5151679143178</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,16 +11303,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>794.5370933619456</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>90.74170917719957</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>97.80334245431652</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081418</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.146865729424294</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>69.71657238080742</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>35.15749310933343</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.821020167099013e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>139.5921776627247</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.56253959275429</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>81.78272691404855</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>8.789189859683717</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>34.6746782719259</v>
       </c>
       <c r="G31" t="n">
-        <v>122.9308428424052</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627256</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0500840249543</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.32028119149646</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.75057454010689</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>130.1498668014703</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>35.15749310933401</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>107.2592358276494</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0500840249543</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.02483605966547</v>
+        <v>87.77334973307151</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S43" t="n">
-        <v>157.1958864734083</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>139.5921776627277</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0500840249543</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I46" t="n">
-        <v>87.32028119149646</v>
+        <v>87.77334973307151</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.75057454010689</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1498668014708</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>753320.2250222494</v>
+        <v>764783.0079387501</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>753320.2250222494</v>
+        <v>770780.3279029836</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>753320.2250222494</v>
+        <v>770780.3279029836</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662683.7549317691</v>
+        <v>663853.0820754259</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792158.4112399621</v>
+        <v>792158.4112399623</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792158.4112399622</v>
+        <v>792158.4112399621</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792158.4112399621</v>
+        <v>792158.411239962</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>792158.4112399621</v>
+        <v>792158.411239962</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>792405.8835023938</v>
+        <v>792158.4112399621</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>792405.8835023938</v>
+        <v>792158.4112399621</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792405.8835023938</v>
+        <v>792158.411239962</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>227862.6109534236</v>
+      </c>
+      <c r="C2" t="n">
         <v>227862.6109534237</v>
       </c>
-      <c r="C2" t="n">
-        <v>227862.6109534236</v>
-      </c>
       <c r="D2" t="n">
-        <v>227862.6109534236</v>
+        <v>227862.6109534237</v>
       </c>
       <c r="E2" t="n">
-        <v>187316.6803722547</v>
+        <v>187647.2067767257</v>
       </c>
       <c r="F2" t="n">
         <v>223914.4732583748</v>
       </c>
       <c r="G2" t="n">
-        <v>223914.4732583748</v>
+        <v>223914.4732583749</v>
       </c>
       <c r="H2" t="n">
         <v>223914.4732583748</v>
@@ -26347,13 +26347,13 @@
         <v>223914.4732583748</v>
       </c>
       <c r="N2" t="n">
-        <v>224024.6487265317</v>
+        <v>223914.4732583747</v>
       </c>
       <c r="O2" t="n">
-        <v>224024.6487265316</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="P2" t="n">
-        <v>224024.6487265316</v>
+        <v>223914.4732583748</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>195702.6160087931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26990.19963889441</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>171743.2266455762</v>
+        <v>99874.9731773082</v>
       </c>
       <c r="F3" t="n">
-        <v>79872.20474064803</v>
+        <v>79150.85324460993</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>152792.9007051282</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21501.21939773568</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143343.1098506392</v>
+        <v>83359.26563805073</v>
       </c>
       <c r="N3" t="n">
-        <v>68212.12920465106</v>
+        <v>67659.41322128734</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>187011.9732966038</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>79370.99836319929</v>
+        <v>79511.05108384398</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875292</v>
       </c>
       <c r="G4" t="n">
         <v>94878.44464875292</v>
@@ -26436,7 +26436,7 @@
         <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
@@ -26445,19 +26445,19 @@
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875288</v>
       </c>
       <c r="N4" t="n">
-        <v>95237.61453644563</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="O4" t="n">
-        <v>95237.61453644563</v>
+        <v>94878.4446487528</v>
       </c>
       <c r="P4" t="n">
-        <v>95237.61453644562</v>
+        <v>94878.44464875283</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69133.12798027776</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60769.58456311785</v>
+        <v>60922.65329321259</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77650.48879577282</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77650.48879577282</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77650.48879577282</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-185846.5972807265</v>
+        <v>-223985.106332251</v>
       </c>
       <c r="C6" t="n">
-        <v>-43655.29662101663</v>
+        <v>-47229.64851367149</v>
       </c>
       <c r="D6" t="n">
-        <v>-43655.29662101661</v>
+        <v>-20239.44887477711</v>
       </c>
       <c r="E6" t="n">
-        <v>-124567.1291996386</v>
+        <v>-52898.03197867853</v>
       </c>
       <c r="F6" t="n">
-        <v>-28554.41473681864</v>
+        <v>-27856.28758016322</v>
       </c>
       <c r="G6" t="n">
-        <v>51317.79000382932</v>
+        <v>51294.56566444676</v>
       </c>
       <c r="H6" t="n">
-        <v>51317.79000382943</v>
+        <v>51294.56566444685</v>
       </c>
       <c r="I6" t="n">
-        <v>51317.7900038294</v>
+        <v>51294.56566444676</v>
       </c>
       <c r="J6" t="n">
-        <v>-59696.67534116082</v>
+        <v>-101498.3350406814</v>
       </c>
       <c r="K6" t="n">
-        <v>51317.79000382934</v>
+        <v>29793.34626671104</v>
       </c>
       <c r="L6" t="n">
-        <v>51317.79000382937</v>
+        <v>51294.56566444675</v>
       </c>
       <c r="M6" t="n">
-        <v>-92025.31984680984</v>
+        <v>-32064.69997360399</v>
       </c>
       <c r="N6" t="n">
-        <v>-17075.58381033785</v>
+        <v>-16364.84755684071</v>
       </c>
       <c r="O6" t="n">
-        <v>51136.54539431317</v>
+        <v>51294.56566444692</v>
       </c>
       <c r="P6" t="n">
-        <v>51136.5453943132</v>
+        <v>51294.56566444675</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>999.4997461039121</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.51973316696</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.51973316696</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.51973316696</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.54270693223589</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>575.2038885838078</v>
+        <v>334.5021172936659</v>
       </c>
       <c r="F4" t="n">
-        <v>278.7607572808332</v>
+        <v>276.2431794832229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223589</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.2038885838078</v>
+        <v>334.5021172936659</v>
       </c>
       <c r="N4" t="n">
-        <v>277.0199870630478</v>
+        <v>276.2431794832229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223589</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.2038885838078</v>
+        <v>334.5021172936659</v>
       </c>
       <c r="N4" t="n">
-        <v>278.7607572808332</v>
+        <v>276.2431794832229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103.8569235685964</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>112.3339634205173</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>125.8164321102146</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>84.4215656721239</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>111.1117530257919</v>
+        <v>367.2261030860415</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>125.4612215598106</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>160.7958207444082</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>101.7445521115756</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>147.112206923408</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>102.9863699957345</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.256871261669545e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>6.45172804070171e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4530685415749506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4530685415749506</v>
+        <v>-1.000444171950221e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>421.4684834939932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>77.34673934026137</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>204.0843468947401</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>108.2982584817757</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>999.499746103912</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>999.499746103912</v>
+        <v>135.5156951187064</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697544</v>
@@ -35486,13 +35486,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>199.8177226071393</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36060,7 +36060,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821552</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,16 +36127,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36364,16 +36364,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850282</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>136.5151679143178</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37619,10 +37619,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.90729598065563</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9868610376714</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8872925496164</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5781869061336</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1791323371756</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3614010928693</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4701331580818</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3447603237287</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850282</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>136.5151679143178</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37856,10 +37856,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.90729598065563</v>
+        <v>87.45422743908058</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9868610376715</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8872925496165</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5781869061336</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1791323371756</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3614010928695</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4701331580818</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3447603237287</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>794.5370933619456</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.90729598065563</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9868610376715</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8872925496165</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5781869061336</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1791323371756</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3614010928691</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4701331580818</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3447603237287</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
